--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed1/result_data_KNN.xlsx
@@ -502,10 +502,10 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.162</v>
+        <v>-12.974</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.602</v>
+        <v>-8.25</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.866</v>
+        <v>-8.581999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -536,10 +536,10 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.942</v>
+        <v>-12.632</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.306000000000001</v>
+        <v>-8.31</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.918</v>
+        <v>-13.214</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.69</v>
+        <v>-12.694</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.684000000000001</v>
+        <v>-8.385999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -706,10 +706,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.412</v>
+        <v>-12.715</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.062000000000001</v>
+        <v>-8.568000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.492</v>
+        <v>-12.9</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.594</v>
+        <v>-13.214</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.634</v>
+        <v>-8.177000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
